--- a/src/dump/RIFT.xlsx
+++ b/src/dump/RIFT.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -778,6 +778,60 @@
         <v/>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(504)3390-1373</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test@prueba.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Participating</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Participating</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Participating</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Participating</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Not Participating</t>
+        </is>
+      </c>
+      <c r="K7">
+        <f>IF(F7="Participating",700,0)+IF(G7="Participating",350,0)+IF(H7="Participating",300,0)+IF(I7="Participating",50,0)+IF(J7="Participating",50,0)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -789,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1090,6 +1144,47 @@
         </is>
       </c>
       <c r="I7" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16:58:28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blue Marlin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:00:59</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>550</v>
       </c>
     </row>
